--- a/config_7.6/game_module_config_cjj.xlsx
+++ b/config_7.6/game_module_config_cjj.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$338</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3691,7 +3691,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_004_xslb</t>
+    <t>act_ty_gifts_style/act_004_sxlb</t>
   </si>
   <si>
     <t>消暑礼包</t>
@@ -3791,10 +3791,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3890,31 +3890,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3934,14 +3919,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -3949,23 +3926,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3979,19 +3949,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4011,16 +3981,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4034,9 +4004,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="41">
@@ -4108,7 +4108,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4126,13 +4216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4144,7 +4240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4156,79 +4252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4240,43 +4276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,35 +4305,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4356,8 +4332,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4369,6 +4360,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4388,17 +4388,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4410,10 +4410,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4422,139 +4422,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4729,13 +4729,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5065,11 +5059,11 @@
   <dimension ref="A1:AJ338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D324" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J338" sqref="J338"/>
+      <selection pane="bottomRight" activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13563,7 +13557,7 @@
       <c r="G328">
         <v>0</v>
       </c>
-      <c r="I328" s="59">
+      <c r="I328" s="58">
         <v>44355</v>
       </c>
     </row>
@@ -13762,7 +13756,7 @@
       <c r="G336">
         <v>1</v>
       </c>
-      <c r="I336" s="60">
+      <c r="I336" s="59">
         <v>44414</v>
       </c>
     </row>
@@ -13796,13 +13790,13 @@
       <c r="A338" s="5">
         <v>337</v>
       </c>
-      <c r="B338" s="58" t="s">
+      <c r="B338" s="54" t="s">
         <v>986</v>
       </c>
       <c r="C338" t="s">
         <v>987</v>
       </c>
-      <c r="D338" s="58" t="s">
+      <c r="D338" s="54" t="s">
         <v>988</v>
       </c>
       <c r="E338">
@@ -13814,12 +13808,12 @@
       <c r="G338">
         <v>1</v>
       </c>
-      <c r="I338" s="61">
+      <c r="I338" s="59">
         <v>44403</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H337">
+  <autoFilter ref="A1:H338">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
